--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD48F7BD-F995-9347-BD58-0C17269C7571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBAC50D-E19F-934D-860D-D761FA6D553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4220" yWindow="1560" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -149,13 +149,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +474,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +507,9 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBAC50D-E19F-934D-860D-D761FA6D553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EE5AE0-FD2E-AE4A-9F6B-F5FAA3F1068A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="1560" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
+    <workbookView xWindow="4920" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -474,7 +474,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,13 +537,17 @@
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -597,7 +601,9 @@
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EE5AE0-FD2E-AE4A-9F6B-F5FAA3F1068A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E461BC1-633C-DE4F-ABB3-8019EF273FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
+    <workbookView xWindow="4360" yWindow="3960" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>due_2021-09-07</t>
   </si>
 </sst>
 </file>
@@ -474,17 +477,18 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="4">
-        <v>44446</v>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E461BC1-633C-DE4F-ABB3-8019EF273FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B62CC50-8D36-C14F-854B-B2C7116E1912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="3960" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
+    <workbookView xWindow="2720" yWindow="1400" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>due_2021-09-07</t>
+  </si>
+  <si>
+    <t>due_2021-09-16</t>
+  </si>
+  <si>
+    <t>did not turn in</t>
   </si>
 </sst>
 </file>
@@ -474,32 +480,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1D7807-2F99-5E49-B90D-00EBE2C67A04}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -507,106 +519,147 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B62CC50-8D36-C14F-854B-B2C7116E1912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6444E-8A9F-2041-80E6-DF7B84021937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1400" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,6 +518,9 @@
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C3" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6444E-8A9F-2041-80E6-DF7B84021937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E694C49-D56A-5B44-80DE-08A30C2FFD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="1400" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
+    <workbookView xWindow="2720" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>did not turn in</t>
+  </si>
+  <si>
+    <t>due_2021-09-23</t>
   </si>
 </sst>
 </file>
@@ -480,27 +483,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1D7807-2F99-5E49-B90D-00EBE2C67A04}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -510,8 +516,11 @@
       <c r="C2" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -521,8 +530,11 @@
       <c r="C3" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -532,8 +544,11 @@
       <c r="C4" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -543,8 +558,11 @@
       <c r="C5" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -554,8 +572,11 @@
       <c r="C6" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -565,8 +586,11 @@
       <c r="C7" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -576,8 +600,11 @@
       <c r="C8" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -587,8 +614,11 @@
       <c r="C9" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -598,8 +628,11 @@
       <c r="C10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -609,8 +642,11 @@
       <c r="C11" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -620,8 +656,11 @@
       <c r="C12" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -631,8 +670,11 @@
       <c r="C13" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -642,8 +684,11 @@
       <c r="C14" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -653,8 +698,11 @@
       <c r="C15" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -663,6 +711,9 @@
       </c>
       <c r="C16" s="1">
         <v>99</v>
+      </c>
+      <c r="D16" s="1">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E694C49-D56A-5B44-80DE-08A30C2FFD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF312FE-CAAF-FA48-9957-3CF4B274F2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>due_2021-09-23</t>
+  </si>
+  <si>
+    <t>due_2021-09-30</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -169,6 +178,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,19 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1D7807-2F99-5E49-B90D-00EBE2C67A04}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
@@ -505,8 +515,11 @@
       <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -519,8 +532,11 @@
       <c r="D2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -533,8 +549,11 @@
       <c r="D3" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -547,8 +566,11 @@
       <c r="D4" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -561,8 +583,11 @@
       <c r="D5" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -575,8 +600,11 @@
       <c r="D6" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -589,8 +617,11 @@
       <c r="D7" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -603,8 +634,11 @@
       <c r="D8" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -617,8 +651,11 @@
       <c r="D9" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -631,8 +668,11 @@
       <c r="D10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -645,8 +685,11 @@
       <c r="D11" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -659,8 +702,11 @@
       <c r="D12" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -673,8 +719,11 @@
       <c r="D13" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -687,8 +736,11 @@
       <c r="D14" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -701,8 +753,11 @@
       <c r="D15" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -714,6 +769,9 @@
       </c>
       <c r="D16" s="1">
         <v>92</v>
+      </c>
+      <c r="E16" s="7">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF312FE-CAAF-FA48-9957-3CF4B274F2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA78BFF2-86E7-7240-BAC9-9D52076ED3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -87,19 +87,25 @@
     <t>good</t>
   </si>
   <si>
-    <t>due_2021-09-07</t>
-  </si>
-  <si>
-    <t>due_2021-09-16</t>
-  </si>
-  <si>
     <t>did not turn in</t>
   </si>
   <si>
-    <t>due_2021-09-23</t>
-  </si>
-  <si>
-    <t>due_2021-09-30</t>
+    <t>hw1</t>
+  </si>
+  <si>
+    <t>hw2</t>
+  </si>
+  <si>
+    <t>hw3</t>
+  </si>
+  <si>
+    <t>hw4</t>
+  </si>
+  <si>
+    <t>hw5</t>
+  </si>
+  <si>
+    <t>hw6</t>
   </si>
 </sst>
 </file>
@@ -493,24 +499,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1D7807-2F99-5E49-B90D-00EBE2C67A04}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>20</v>
@@ -518,8 +525,14 @@
       <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -535,8 +548,14 @@
       <c r="E2" s="7">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="7">
+        <v>109</v>
+      </c>
+      <c r="G2" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -552,8 +571,14 @@
       <c r="E3" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="1">
+        <v>98</v>
+      </c>
+      <c r="G3" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -569,8 +594,14 @@
       <c r="E4" s="7">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -586,13 +617,19 @@
       <c r="E5" s="7">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="7">
+        <v>101</v>
+      </c>
+      <c r="G5" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>79</v>
@@ -603,8 +640,14 @@
       <c r="E6" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="1">
+        <v>97</v>
+      </c>
+      <c r="G6" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -620,8 +663,14 @@
       <c r="E7" s="7">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="7">
+        <v>103</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -637,8 +686,14 @@
       <c r="E8" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <v>98</v>
+      </c>
+      <c r="G8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -654,8 +709,14 @@
       <c r="E9" s="7">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="1">
+        <v>98</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -671,8 +732,14 @@
       <c r="E10" s="7">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="7">
+        <v>109</v>
+      </c>
+      <c r="G10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -688,8 +755,14 @@
       <c r="E11" s="7">
         <v>110</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="7">
+        <v>109</v>
+      </c>
+      <c r="G11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,8 +778,14 @@
       <c r="E12" s="7">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="1">
+        <v>98</v>
+      </c>
+      <c r="G12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -722,8 +801,14 @@
       <c r="E13" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="7">
+        <v>101</v>
+      </c>
+      <c r="G13" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -739,8 +824,14 @@
       <c r="E14" s="7">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="7">
+        <v>108</v>
+      </c>
+      <c r="G14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -756,8 +847,14 @@
       <c r="E15" s="7">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="7">
+        <v>105</v>
+      </c>
+      <c r="G15" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -772,6 +869,12 @@
       </c>
       <c r="E16" s="7">
         <v>109</v>
+      </c>
+      <c r="F16" s="7">
+        <v>105</v>
+      </c>
+      <c r="G16" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA78BFF2-86E7-7240-BAC9-9D52076ED3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817AB5EF-732C-2944-9A96-6421D46002A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>hw6</t>
+  </si>
+  <si>
+    <t>hw7</t>
   </si>
 </sst>
 </file>
@@ -499,20 +502,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1D7807-2F99-5E49-B90D-00EBE2C67A04}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -531,8 +534,11 @@
       <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,8 +560,11 @@
       <c r="G2" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -577,8 +586,11 @@
       <c r="G3" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -600,8 +612,11 @@
       <c r="G4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -623,8 +638,11 @@
       <c r="G5" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -647,7 +665,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -669,8 +687,11 @@
       <c r="G7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -692,8 +713,11 @@
       <c r="G8" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -715,8 +739,11 @@
       <c r="G9" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -738,8 +765,11 @@
       <c r="G10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -761,8 +791,11 @@
       <c r="G11" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -784,8 +817,11 @@
       <c r="G12" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -807,8 +843,11 @@
       <c r="G13" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -830,8 +869,11 @@
       <c r="G14" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -853,8 +895,11 @@
       <c r="G15" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -874,6 +919,9 @@
         <v>105</v>
       </c>
       <c r="G16" s="1">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1">
         <v>100</v>
       </c>
     </row>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817AB5EF-732C-2944-9A96-6421D46002A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60426B3A-15AD-B34A-8833-6689D5E530B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>hw7</t>
+  </si>
+  <si>
+    <t>hw8</t>
   </si>
 </sst>
 </file>
@@ -502,20 +505,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1D7807-2F99-5E49-B90D-00EBE2C67A04}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -537,8 +540,11 @@
       <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,7 +570,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -589,8 +595,11 @@
       <c r="H3" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -615,8 +624,11 @@
       <c r="H4" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -641,8 +653,11 @@
       <c r="H5" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -665,7 +680,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -690,8 +705,11 @@
       <c r="H7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -716,8 +734,11 @@
       <c r="H8" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -742,8 +763,11 @@
       <c r="H9" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -768,8 +792,11 @@
       <c r="H10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -794,8 +821,11 @@
       <c r="H11" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -820,8 +850,11 @@
       <c r="H12" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -847,7 +880,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -873,7 +906,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -899,7 +932,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60426B3A-15AD-B34A-8833-6689D5E530B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491A7320-F174-0247-82DD-CBFFABA0427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>hw8</t>
+  </si>
+  <si>
+    <t>hw9</t>
+  </si>
+  <si>
+    <t>hw10</t>
   </si>
 </sst>
 </file>
@@ -505,20 +511,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1D7807-2F99-5E49-B90D-00EBE2C67A04}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -543,8 +550,14 @@
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,11 +579,17 @@
       <c r="G2" s="1">
         <v>99</v>
       </c>
-      <c r="H2" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="6">
+        <v>99</v>
+      </c>
+      <c r="I2" s="6">
+        <v>99</v>
+      </c>
+      <c r="J2" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -592,14 +611,17 @@
       <c r="G3" s="1">
         <v>99</v>
       </c>
-      <c r="H3" s="1">
-        <v>99</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="6">
+        <v>99</v>
+      </c>
+      <c r="I3" s="6">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -621,14 +643,17 @@
       <c r="G4" s="1">
         <v>100</v>
       </c>
-      <c r="H4" s="1">
-        <v>98</v>
-      </c>
-      <c r="I4" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="6">
+        <v>98</v>
+      </c>
+      <c r="I4" s="6">
+        <v>99</v>
+      </c>
+      <c r="J4" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -650,14 +675,17 @@
       <c r="G5" s="1">
         <v>94</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <v>93</v>
       </c>
-      <c r="I5" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="6">
+        <v>98</v>
+      </c>
+      <c r="J5" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -679,8 +707,17 @@
       <c r="G6" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="6">
+        <v>94</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -702,14 +739,17 @@
       <c r="G7" s="1">
         <v>100</v>
       </c>
-      <c r="H7" s="1">
-        <v>100</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H7" s="6">
+        <v>100</v>
+      </c>
+      <c r="I7" s="6">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -731,14 +771,17 @@
       <c r="G8" s="1">
         <v>100</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <v>92</v>
       </c>
-      <c r="I8" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="6">
+        <v>100</v>
+      </c>
+      <c r="J8" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -760,14 +803,17 @@
       <c r="G9" s="1">
         <v>100</v>
       </c>
-      <c r="H9" s="1">
-        <v>100</v>
-      </c>
-      <c r="I9" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="6">
+        <v>100</v>
+      </c>
+      <c r="I9" s="6">
+        <v>99</v>
+      </c>
+      <c r="J9" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -789,14 +835,17 @@
       <c r="G10" s="1">
         <v>100</v>
       </c>
-      <c r="H10" s="1">
-        <v>100</v>
-      </c>
-      <c r="I10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="6">
+        <v>100</v>
+      </c>
+      <c r="I10" s="6">
+        <v>100</v>
+      </c>
+      <c r="J10" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -818,14 +867,17 @@
       <c r="G11" s="1">
         <v>100</v>
       </c>
-      <c r="H11" s="1">
-        <v>100</v>
-      </c>
-      <c r="I11" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="6">
+        <v>100</v>
+      </c>
+      <c r="I11" s="6">
+        <v>99</v>
+      </c>
+      <c r="J11" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -847,14 +899,17 @@
       <c r="G12" s="1">
         <v>100</v>
       </c>
-      <c r="H12" s="1">
-        <v>98</v>
-      </c>
-      <c r="I12" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="6">
+        <v>98</v>
+      </c>
+      <c r="I12" s="6">
+        <v>99</v>
+      </c>
+      <c r="J12" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -876,11 +931,17 @@
       <c r="G13" s="1">
         <v>96</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="6">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="6">
+        <v>89</v>
+      </c>
+      <c r="J13" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -902,11 +963,17 @@
       <c r="G14" s="1">
         <v>100</v>
       </c>
-      <c r="H14" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="6">
+        <v>99</v>
+      </c>
+      <c r="I14" s="6">
+        <v>99</v>
+      </c>
+      <c r="J14" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -928,11 +995,17 @@
       <c r="G15" s="1">
         <v>99</v>
       </c>
-      <c r="H15" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="6">
+        <v>98</v>
+      </c>
+      <c r="I15" s="6">
+        <v>95</v>
+      </c>
+      <c r="J15" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -954,7 +1027,13 @@
       <c r="G16" s="1">
         <v>100</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="6">
+        <v>100</v>
+      </c>
+      <c r="I16" s="6">
+        <v>99</v>
+      </c>
+      <c r="J16" s="6">
         <v>100</v>
       </c>
     </row>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491A7320-F174-0247-82DD-CBFFABA0427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35DCB6E-EE18-0D45-AE3B-A8F90F749A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>hw10</t>
+  </si>
+  <si>
+    <t>hw11</t>
+  </si>
+  <si>
+    <t>hw12</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1D7807-2F99-5E49-B90D-00EBE2C67A04}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,10 +528,10 @@
     <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -556,8 +562,14 @@
       <c r="K1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -588,8 +600,11 @@
       <c r="J2" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -620,8 +635,11 @@
       <c r="J3" s="6">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -652,8 +670,11 @@
       <c r="J4" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -684,8 +705,11 @@
       <c r="J5" s="6">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -716,8 +740,11 @@
       <c r="J6" s="6">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="J7" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -780,8 +810,11 @@
       <c r="J8" s="6">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -812,8 +845,11 @@
       <c r="J9" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -844,8 +880,11 @@
       <c r="J10" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -876,8 +915,11 @@
       <c r="J11" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -908,8 +950,11 @@
       <c r="J12" s="6">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -940,8 +985,11 @@
       <c r="J13" s="6">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -972,8 +1020,11 @@
       <c r="J14" s="6">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1004,8 +1055,11 @@
       <c r="J15" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1035,6 +1089,9 @@
       </c>
       <c r="J16" s="6">
         <v>100</v>
+      </c>
+      <c r="K16" s="1">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35DCB6E-EE18-0D45-AE3B-A8F90F749A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F8966-83EA-B444-B22C-ABFDFC86786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,6 +603,9 @@
       <c r="K2" s="1">
         <v>100</v>
       </c>
+      <c r="L2" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -638,6 +641,9 @@
       <c r="K3" s="1">
         <v>97</v>
       </c>
+      <c r="L3" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -673,6 +679,9 @@
       <c r="K4" s="1">
         <v>99</v>
       </c>
+      <c r="L4" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -708,6 +717,9 @@
       <c r="K5" s="1">
         <v>93</v>
       </c>
+      <c r="L5" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -743,6 +755,9 @@
       <c r="K6" s="1">
         <v>98</v>
       </c>
+      <c r="L6" s="1">
+        <v>89</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -778,6 +793,9 @@
       <c r="K7" s="1">
         <v>99</v>
       </c>
+      <c r="L7" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -813,6 +831,9 @@
       <c r="K8" s="1">
         <v>100</v>
       </c>
+      <c r="L8" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -848,6 +869,9 @@
       <c r="K9" s="1">
         <v>99</v>
       </c>
+      <c r="L9" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -881,6 +905,9 @@
         <v>100</v>
       </c>
       <c r="K10" s="1">
+        <v>100</v>
+      </c>
+      <c r="L10" s="1">
         <v>100</v>
       </c>
     </row>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F8966-83EA-B444-B22C-ABFDFC86786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C05E86-036E-1A4C-9101-551B7F8B1A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>hw12</t>
+  </si>
+  <si>
+    <t>hw13</t>
+  </si>
+  <si>
+    <t>top10</t>
+  </si>
+  <si>
+    <t>top10_avg_capped_to_100</t>
   </si>
 </sst>
 </file>
@@ -147,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +175,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -190,11 +211,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -203,6 +261,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1D7807-2F99-5E49-B90D-00EBE2C67A04}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,10 +597,12 @@
     <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="24" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -568,8 +639,26 @@
       <c r="M1" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -606,8 +695,58 @@
       <c r="L2" s="1">
         <v>97</v>
       </c>
+      <c r="M2" s="1">
+        <v>99</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9">
+        <f>LARGE(C2:N2,1)</f>
+        <v>110</v>
+      </c>
+      <c r="P2" s="9">
+        <f>LARGE(C2:N2,2)</f>
+        <v>109</v>
+      </c>
+      <c r="Q2" s="9">
+        <f>LARGE(C2:N2,3)</f>
+        <v>100</v>
+      </c>
+      <c r="R2" s="9">
+        <f>LARGE(C2:N2,4)</f>
+        <v>100</v>
+      </c>
+      <c r="S2" s="9">
+        <f>LARGE(C2:N2,5)</f>
+        <v>99</v>
+      </c>
+      <c r="T2" s="9">
+        <f>LARGE(C2:N2,6)</f>
+        <v>99</v>
+      </c>
+      <c r="U2" s="9">
+        <f>LARGE(C2:N2,7)</f>
+        <v>99</v>
+      </c>
+      <c r="V2" s="9">
+        <f>LARGE(C2:N2,8)</f>
+        <v>99</v>
+      </c>
+      <c r="W2" s="9">
+        <f>LARGE(C2:N2,9)</f>
+        <v>99</v>
+      </c>
+      <c r="X2" s="9">
+        <f>LARGE(C2:N2,10)</f>
+        <v>97</v>
+      </c>
+      <c r="Y2" s="8">
+        <f>IF(ROUND(AVERAGE(O2:X2),0)&gt;100,100,ROUND(AVERAGE(O2:X2),0))</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -644,8 +783,55 @@
       <c r="L3" s="1">
         <v>98</v>
       </c>
+      <c r="M3" s="1">
+        <v>98</v>
+      </c>
+      <c r="O3" s="9">
+        <f t="shared" ref="O3:O16" si="0">LARGE(C3:N3,1)</f>
+        <v>99</v>
+      </c>
+      <c r="P3" s="9">
+        <f t="shared" ref="P3:P16" si="1">LARGE(C3:N3,2)</f>
+        <v>99</v>
+      </c>
+      <c r="Q3" s="9">
+        <f t="shared" ref="Q3:Q16" si="2">LARGE(C3:N3,3)</f>
+        <v>98</v>
+      </c>
+      <c r="R3" s="9">
+        <f t="shared" ref="R3:R16" si="3">LARGE(C3:N3,4)</f>
+        <v>98</v>
+      </c>
+      <c r="S3" s="9">
+        <f t="shared" ref="S3:S16" si="4">LARGE(C3:N3,5)</f>
+        <v>98</v>
+      </c>
+      <c r="T3" s="9">
+        <f t="shared" ref="T3:T16" si="5">LARGE(C3:N3,6)</f>
+        <v>98</v>
+      </c>
+      <c r="U3" s="9">
+        <f t="shared" ref="U3:U16" si="6">LARGE(C3:N3,7)</f>
+        <v>98</v>
+      </c>
+      <c r="V3" s="9">
+        <f t="shared" ref="V3:V16" si="7">LARGE(C3:N3,8)</f>
+        <v>97</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:W16" si="8">LARGE(C3:N3,9)</f>
+        <v>97</v>
+      </c>
+      <c r="X3" s="9">
+        <f t="shared" ref="X3:X16" si="9">LARGE(C3:N3,10)</f>
+        <v>95</v>
+      </c>
+      <c r="Y3" s="8">
+        <f t="shared" ref="Y3:Y16" si="10">IF(ROUND(AVERAGE(O3:X3),0)&gt;100,100,ROUND(AVERAGE(O3:X3),0))</f>
+        <v>98</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -682,8 +868,55 @@
       <c r="L4" s="1">
         <v>99</v>
       </c>
+      <c r="M4" s="1">
+        <v>98</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="P4" s="9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q4" s="9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R4" s="9">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="S4" s="9">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="T4" s="9">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="U4" s="9">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="V4" s="9">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="X4" s="9">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="Y4" s="8">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -720,8 +953,55 @@
       <c r="L5" s="1">
         <v>97</v>
       </c>
+      <c r="M5" s="1">
+        <v>97</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="T5" s="9">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="U5" s="9">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="V5" s="9">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="X5" s="9">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="Y5" s="8">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -758,8 +1038,58 @@
       <c r="L6" s="1">
         <v>89</v>
       </c>
+      <c r="M6" s="1">
+        <v>85</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="T6" s="9">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="U6" s="9">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="V6" s="9">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="X6" s="9">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" si="10"/>
+        <v>93</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -796,8 +1126,55 @@
       <c r="L7" s="1">
         <v>100</v>
       </c>
+      <c r="M7" s="1">
+        <v>100</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="T7" s="9">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="U7" s="9">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="X7" s="9">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -834,8 +1211,55 @@
       <c r="L8" s="1">
         <v>100</v>
       </c>
+      <c r="M8" s="1">
+        <v>100</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="T8" s="9">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="U8" s="9">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="V8" s="9">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="X8" s="9">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="Y8" s="8">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -872,8 +1296,55 @@
       <c r="L9" s="1">
         <v>100</v>
       </c>
+      <c r="M9" s="1">
+        <v>99</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="T9" s="9">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="V9" s="9">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="X9" s="9">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -910,8 +1381,55 @@
       <c r="L10" s="1">
         <v>100</v>
       </c>
+      <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="V10" s="9">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="X10" s="9">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="Y10" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -945,8 +1463,58 @@
       <c r="K11" s="1">
         <v>99</v>
       </c>
+      <c r="L11" s="1">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="V11" s="9">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="X11" s="9">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="Y11" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -980,8 +1548,58 @@
       <c r="K12" s="1">
         <v>100</v>
       </c>
+      <c r="L12" s="1">
+        <v>100</v>
+      </c>
+      <c r="M12" s="1">
+        <v>100</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="V12" s="9">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="X12" s="9">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="Y12" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1015,8 +1633,58 @@
       <c r="K13" s="1">
         <v>99</v>
       </c>
+      <c r="L13" s="1">
+        <v>98</v>
+      </c>
+      <c r="M13" s="1">
+        <v>83</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="V13" s="9">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="X13" s="9">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1050,8 +1718,58 @@
       <c r="K14" s="1">
         <v>99</v>
       </c>
+      <c r="L14" s="1">
+        <v>98</v>
+      </c>
+      <c r="M14" s="1">
+        <v>98</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="V14" s="9">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="X14" s="9">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="Y14" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1085,8 +1803,55 @@
       <c r="K15" s="1">
         <v>98</v>
       </c>
+      <c r="L15" s="1">
+        <v>93</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="6"/>
+        <v>95</v>
+      </c>
+      <c r="V15" s="9">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="X15" s="9">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1120,8 +1885,61 @@
       <c r="K16" s="1">
         <v>99</v>
       </c>
+      <c r="L16" s="1">
+        <v>100</v>
+      </c>
+      <c r="M16" s="1">
+        <v>100</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="V16" s="9">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="X16" s="9">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O1:X1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C05E86-036E-1A4C-9101-551B7F8B1A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0E505-F8C9-504C-9C68-2690F23413B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,9 +786,12 @@
       <c r="M3" s="1">
         <v>98</v>
       </c>
+      <c r="N3" s="1">
+        <v>100</v>
+      </c>
       <c r="O3" s="9">
         <f t="shared" ref="O3:O16" si="0">LARGE(C3:N3,1)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="9">
         <f t="shared" ref="P3:P16" si="1">LARGE(C3:N3,2)</f>
@@ -796,7 +799,7 @@
       </c>
       <c r="Q3" s="9">
         <f t="shared" ref="Q3:Q16" si="2">LARGE(C3:N3,3)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R3" s="9">
         <f t="shared" ref="R3:R16" si="3">LARGE(C3:N3,4)</f>
@@ -816,7 +819,7 @@
       </c>
       <c r="V3" s="9">
         <f t="shared" ref="V3:V16" si="7">LARGE(C3:N3,8)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W3" s="9">
         <f t="shared" ref="W3:W16" si="8">LARGE(C3:N3,9)</f>
@@ -824,7 +827,7 @@
       </c>
       <c r="X3" s="9">
         <f t="shared" ref="X3:X16" si="9">LARGE(C3:N3,10)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y3" s="8">
         <f t="shared" ref="Y3:Y16" si="10">IF(ROUND(AVERAGE(O3:X3),0)&gt;100,100,ROUND(AVERAGE(O3:X3),0))</f>
@@ -871,6 +874,9 @@
       <c r="M4" s="1">
         <v>98</v>
       </c>
+      <c r="N4" s="1">
+        <v>95</v>
+      </c>
       <c r="O4" s="9">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -956,6 +962,9 @@
       <c r="M5" s="1">
         <v>97</v>
       </c>
+      <c r="N5" s="1">
+        <v>89</v>
+      </c>
       <c r="O5" s="9">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -1129,6 +1138,9 @@
       <c r="M7" s="1">
         <v>100</v>
       </c>
+      <c r="N7" s="1">
+        <v>100</v>
+      </c>
       <c r="O7" s="9">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -1155,7 +1167,7 @@
       </c>
       <c r="U7" s="9">
         <f t="shared" si="6"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" si="7"/>
@@ -1163,11 +1175,11 @@
       </c>
       <c r="W7" s="9">
         <f t="shared" si="8"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="X7" s="9">
         <f t="shared" si="9"/>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="10"/>
@@ -1214,6 +1226,9 @@
       <c r="M8" s="1">
         <v>100</v>
       </c>
+      <c r="N8" s="1">
+        <v>100</v>
+      </c>
       <c r="O8" s="9">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -1240,23 +1255,23 @@
       </c>
       <c r="U8" s="9">
         <f t="shared" si="6"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" si="7"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W8" s="9">
         <f t="shared" si="8"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="X8" s="9">
         <f t="shared" si="9"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="10"/>
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1299,6 +1314,9 @@
       <c r="M9" s="1">
         <v>99</v>
       </c>
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
       <c r="O9" s="9">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -1321,7 +1339,7 @@
       </c>
       <c r="T9" s="9">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U9" s="9">
         <f t="shared" si="6"/>
@@ -1337,7 +1355,7 @@
       </c>
       <c r="X9" s="9">
         <f t="shared" si="9"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="10"/>
@@ -1384,6 +1402,9 @@
       <c r="M10" s="1">
         <v>100</v>
       </c>
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
       <c r="O10" s="9">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -1469,6 +1490,9 @@
       <c r="M11" s="1">
         <v>100</v>
       </c>
+      <c r="N11" s="1">
+        <v>100</v>
+      </c>
       <c r="O11" s="9">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -1507,7 +1531,7 @@
       </c>
       <c r="X11" s="9">
         <f t="shared" si="9"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="10"/>
@@ -1554,6 +1578,9 @@
       <c r="M12" s="1">
         <v>100</v>
       </c>
+      <c r="N12" s="1">
+        <v>100</v>
+      </c>
       <c r="O12" s="9">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -1576,7 +1603,7 @@
       </c>
       <c r="T12" s="9">
         <f t="shared" si="5"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U12" s="9">
         <f t="shared" si="6"/>
@@ -1584,7 +1611,7 @@
       </c>
       <c r="V12" s="9">
         <f t="shared" si="7"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W12" s="9">
         <f t="shared" si="8"/>
@@ -1639,6 +1666,9 @@
       <c r="M13" s="1">
         <v>83</v>
       </c>
+      <c r="N13" s="1">
+        <v>90</v>
+      </c>
       <c r="O13" s="9">
         <f t="shared" si="0"/>
         <v>101</v>
@@ -1677,7 +1707,7 @@
       </c>
       <c r="X13" s="9">
         <f t="shared" si="9"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="10"/>
@@ -1724,6 +1754,9 @@
       <c r="M14" s="1">
         <v>98</v>
       </c>
+      <c r="N14" s="1">
+        <v>95</v>
+      </c>
       <c r="O14" s="9">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -1806,6 +1839,12 @@
       <c r="L15" s="1">
         <v>93</v>
       </c>
+      <c r="M15" s="1">
+        <v>78</v>
+      </c>
+      <c r="N15" s="1">
+        <v>90</v>
+      </c>
       <c r="O15" s="9">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -1844,11 +1883,11 @@
       </c>
       <c r="X15" s="9">
         <f t="shared" si="9"/>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="10"/>
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1891,6 +1930,9 @@
       <c r="M16" s="1">
         <v>100</v>
       </c>
+      <c r="N16" s="1">
+        <v>100</v>
+      </c>
       <c r="O16" s="9">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -1921,7 +1963,7 @@
       </c>
       <c r="V16" s="9">
         <f t="shared" si="7"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W16" s="9">
         <f t="shared" si="8"/>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kcg1/code/kriscgun/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0E505-F8C9-504C-9C68-2690F23413B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867D96A5-5A03-1941-AE5C-7F81D17EFB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="1540" windowWidth="27640" windowHeight="16940" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
+    <workbookView xWindow="1400" yWindow="1640" windowWidth="33780" windowHeight="19680" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AA$2:$AA$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AA$2:$AA$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AA$2:$AA$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AA$2:$AA$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -134,6 +138,18 @@
   <si>
     <t>top10_avg_capped_to_100</t>
   </si>
+  <si>
+    <t>Take-home final</t>
+  </si>
+  <si>
+    <t>In-class final</t>
+  </si>
+  <si>
+    <t>Participation</t>
+  </si>
+  <si>
+    <t>Final Grade</t>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,18 +193,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -248,11 +270,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -261,8 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -272,6 +304,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,6 +325,1542 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F41-FA4F-956D-B9888F1133F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="985726560"/>
+        <c:axId val="985712544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="985726560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="985712544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="985712544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="985726560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{4B218E57-D008-A940-B6A9-2259BB7DF66C}">
+          <cx:dataPt idx="0"/>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="1"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>984251</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>49894</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19958</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF08D4F-F4DE-684E-B866-00EB0F6579AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>594179</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DC2E14-4ABA-E74F-98F5-77400BDEC055}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6009822" y="3681187"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -586,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1D7807-2F99-5E49-B90D-00EBE2C67A04}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,10 +2173,10 @@
     <col min="3" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="24" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -642,23 +2216,35 @@
       <c r="N1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="2" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="Z1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,52 +2287,58 @@
       <c r="N2" s="5">
         <v>0</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="8">
         <f>LARGE(C2:N2,1)</f>
         <v>110</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="8">
         <f>LARGE(C2:N2,2)</f>
         <v>109</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="8">
         <f>LARGE(C2:N2,3)</f>
         <v>100</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="8">
         <f>LARGE(C2:N2,4)</f>
         <v>100</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="8">
         <f>LARGE(C2:N2,5)</f>
         <v>99</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="8">
         <f>LARGE(C2:N2,6)</f>
         <v>99</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="8">
         <f>LARGE(C2:N2,7)</f>
         <v>99</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="8">
         <f>LARGE(C2:N2,8)</f>
         <v>99</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W2" s="8">
         <f>LARGE(C2:N2,9)</f>
         <v>99</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="8">
         <f>LARGE(C2:N2,10)</f>
         <v>97</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="14">
         <f>IF(ROUND(AVERAGE(O2:X2),0)&gt;100,100,ROUND(AVERAGE(O2:X2),0))</f>
         <v>100</v>
       </c>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="17"/>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -789,52 +2381,58 @@
       <c r="N3" s="1">
         <v>100</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <f t="shared" ref="O3:O16" si="0">LARGE(C3:N3,1)</f>
         <v>100</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <f t="shared" ref="P3:P16" si="1">LARGE(C3:N3,2)</f>
         <v>99</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <f t="shared" ref="Q3:Q16" si="2">LARGE(C3:N3,3)</f>
         <v>99</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="8">
         <f t="shared" ref="R3:R16" si="3">LARGE(C3:N3,4)</f>
         <v>98</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="8">
         <f t="shared" ref="S3:S16" si="4">LARGE(C3:N3,5)</f>
         <v>98</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <f t="shared" ref="T3:T16" si="5">LARGE(C3:N3,6)</f>
         <v>98</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="8">
         <f t="shared" ref="U3:U16" si="6">LARGE(C3:N3,7)</f>
         <v>98</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="8">
         <f t="shared" ref="V3:V16" si="7">LARGE(C3:N3,8)</f>
         <v>98</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="8">
         <f t="shared" ref="W3:W16" si="8">LARGE(C3:N3,9)</f>
         <v>97</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="8">
         <f t="shared" ref="X3:X16" si="9">LARGE(C3:N3,10)</f>
         <v>97</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="14">
         <f t="shared" ref="Y3:Y16" si="10">IF(ROUND(AVERAGE(O3:X3),0)&gt;100,100,ROUND(AVERAGE(O3:X3),0))</f>
         <v>98</v>
       </c>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15">
+        <v>66</v>
+      </c>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="17"/>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -877,52 +2475,58 @@
       <c r="N4" s="1">
         <v>95</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="8">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="8">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="8">
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="8">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="8">
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="8">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" s="8">
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="14">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15">
+        <v>86</v>
+      </c>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="17"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -965,52 +2569,58 @@
       <c r="N5" s="1">
         <v>89</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="8">
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="8">
         <f t="shared" si="6"/>
         <v>94</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="8">
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="8">
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="8">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="14">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15">
+        <v>71</v>
+      </c>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="17"/>
     </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1053,52 +2663,58 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="8">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="8">
         <f t="shared" si="5"/>
         <v>94</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="8">
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="8">
         <f t="shared" si="7"/>
         <v>89</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="8">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="8">
         <f t="shared" si="9"/>
         <v>79</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="14">
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15">
+        <v>63</v>
+      </c>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="17"/>
     </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1141,52 +2757,58 @@
       <c r="N7" s="1">
         <v>100</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="8">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="8">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="8">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="8">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="8">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="8">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X7" s="8">
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="14">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15">
+        <v>73</v>
+      </c>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="17"/>
     </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1229,52 +2851,58 @@
       <c r="N8" s="1">
         <v>100</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="8">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="8">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="8">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="8">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="8">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="8">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="8">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="14">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15">
+        <v>93</v>
+      </c>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="17"/>
     </row>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1317,52 +2945,58 @@
       <c r="N9" s="1">
         <v>100</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="8">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="8">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="8">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="8">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="8">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X9" s="8">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="14">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15">
+        <v>91</v>
+      </c>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="17"/>
     </row>
-    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1405,52 +3039,56 @@
       <c r="N10" s="1">
         <v>100</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="8">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="8">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="8">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="8">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="8">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="8">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="8">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="14">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="17"/>
     </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1493,52 +3131,58 @@
       <c r="N11" s="1">
         <v>100</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="8">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="8">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="8">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="8">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="8">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="8">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="8">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="8">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y11" s="14">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15">
+        <v>74</v>
+      </c>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="17"/>
     </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1581,52 +3225,58 @@
       <c r="N12" s="1">
         <v>100</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="8">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="8">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="8">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="8">
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="14">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15">
+        <v>73</v>
+      </c>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="17"/>
     </row>
-    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1669,52 +3319,56 @@
       <c r="N13" s="1">
         <v>90</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="8">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="8">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="8">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="8">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="8">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="8">
         <f t="shared" si="5"/>
         <v>96</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="8">
         <f t="shared" si="6"/>
         <v>96</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="8">
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="W13" s="9">
+      <c r="W13" s="8">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="X13" s="9">
+      <c r="X13" s="8">
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="Y13" s="8">
+      <c r="Y13" s="14">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="17"/>
     </row>
-    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1757,52 +3411,58 @@
       <c r="N14" s="1">
         <v>95</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="8">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="8">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="8">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="8">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="8">
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="8">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="8">
         <f t="shared" si="7"/>
         <v>98</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="8">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="8">
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="Y14" s="8">
+      <c r="Y14" s="14">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15">
+        <v>85</v>
+      </c>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="17"/>
     </row>
-    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1845,52 +3505,58 @@
       <c r="N15" s="1">
         <v>90</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="8">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="8">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="8">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="8">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="8">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="8">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="8">
         <f t="shared" si="6"/>
         <v>95</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="8">
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="8">
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="X15" s="9">
+      <c r="X15" s="8">
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="14">
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15">
+        <v>79</v>
+      </c>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="17"/>
     </row>
-    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1933,49 +3599,69 @@
       <c r="N16" s="1">
         <v>100</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="8">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="8">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="8">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="8">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="8">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="8">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="8">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="8">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="8">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="Y16" s="8">
+      <c r="Y16" s="14">
         <f t="shared" si="10"/>
         <v>100</v>
+      </c>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15">
+        <v>70</v>
+      </c>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="17"/>
+    </row>
+    <row r="17" spans="25:28" x14ac:dyDescent="0.2">
+      <c r="Y17">
+        <v>70</v>
+      </c>
+      <c r="Z17">
+        <v>10</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>10</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1983,5 +3669,6 @@
     <mergeCell ref="O1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kcg1/code/kriscgun/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867D96A5-5A03-1941-AE5C-7F81D17EFB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D89EF12-D1C3-B644-84DF-777791725880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1400" yWindow="1640" windowWidth="33780" windowHeight="19680" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Al Qassab, Omar</t>
   </si>
@@ -149,13 +149,31 @@
   </si>
   <si>
     <t>Final Grade</t>
+  </si>
+  <si>
+    <t>Final Letter Grade</t>
+  </si>
+  <si>
+    <t>Weighting</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>Tentative Final Grade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,8 +189,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +241,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -304,12 +357,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2160,10 +2220,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1D7807-2F99-5E49-B90D-00EBE2C67A04}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2176,7 +2237,7 @@
     <col min="25" max="25" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
@@ -2228,23 +2289,29 @@
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
       <c r="X1" s="11"/>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="AD1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="24" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2327,18 +2394,30 @@
         <f>LARGE(C2:N2,10)</f>
         <v>97</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Y2" s="16">
         <f>IF(ROUND(AVERAGE(O2:X2),0)&gt;100,100,ROUND(AVERAGE(O2:X2),0))</f>
         <v>100</v>
       </c>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15">
+      <c r="Z2" s="22">
+        <f>IF(ROUND(AVERAGE(P2:Y2),0)&gt;100,100,ROUND(AVERAGE(P2:Y2),0))</f>
+        <v>100</v>
+      </c>
+      <c r="AA2" s="17">
         <v>88</v>
       </c>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="17"/>
+      <c r="AB2" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="13">
+        <f xml:space="preserve"> Y2*0.7 + Z2*0.1 + AA2*0.1 + AB2*0.1</f>
+        <v>98.8</v>
+      </c>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2421,18 +2500,30 @@
         <f t="shared" ref="X3:X16" si="9">LARGE(C3:N3,10)</f>
         <v>97</v>
       </c>
-      <c r="Y3" s="14">
-        <f t="shared" ref="Y3:Y16" si="10">IF(ROUND(AVERAGE(O3:X3),0)&gt;100,100,ROUND(AVERAGE(O3:X3),0))</f>
-        <v>98</v>
-      </c>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15">
+      <c r="Y3" s="16">
+        <f t="shared" ref="Y3:Z16" si="10">IF(ROUND(AVERAGE(O3:X3),0)&gt;100,100,ROUND(AVERAGE(O3:X3),0))</f>
+        <v>98</v>
+      </c>
+      <c r="Z3" s="22">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="AA3" s="17">
         <v>66</v>
       </c>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="17"/>
+      <c r="AB3" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="13">
+        <f t="shared" ref="AC3:AC16" si="11" xml:space="preserve"> Y3*0.7 + Z3*0.1 + AA3*0.1 + AB3*0.1</f>
+        <v>94.999999999999986</v>
+      </c>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2515,18 +2606,30 @@
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="16">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15">
+      <c r="Z4" s="22">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="AA4" s="17">
         <v>86</v>
       </c>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="17"/>
+      <c r="AB4" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="13">
+        <f t="shared" si="11"/>
+        <v>97.8</v>
+      </c>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2609,18 +2712,30 @@
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="16">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15">
+      <c r="Z5" s="22">
+        <f t="shared" si="10"/>
+        <v>96</v>
+      </c>
+      <c r="AA5" s="17">
         <v>71</v>
       </c>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="17"/>
+      <c r="AB5" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="13">
+        <f t="shared" si="11"/>
+        <v>94.6</v>
+      </c>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="22" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2703,18 +2818,30 @@
         <f t="shared" si="9"/>
         <v>79</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="16">
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15">
+      <c r="Z6" s="22">
+        <f t="shared" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="AA6" s="17">
         <v>63</v>
       </c>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="17"/>
+      <c r="AB6" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="13">
+        <f t="shared" si="11"/>
+        <v>90.6</v>
+      </c>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="22" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2797,18 +2924,30 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="16">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15">
+      <c r="Z7" s="22">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AA7" s="17">
         <v>73</v>
       </c>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="17"/>
+      <c r="AB7" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="13">
+        <f t="shared" si="11"/>
+        <v>97.3</v>
+      </c>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2891,18 +3030,30 @@
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y8" s="16">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15">
+      <c r="Z8" s="22">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="AA8" s="17">
         <v>93</v>
       </c>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="17"/>
+      <c r="AB8" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="13">
+        <f t="shared" si="11"/>
+        <v>98.5</v>
+      </c>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2985,18 +3136,30 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Y9" s="16">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15">
+      <c r="Z9" s="22">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AA9" s="17">
         <v>91</v>
       </c>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="17"/>
+      <c r="AB9" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="13">
+        <f t="shared" si="11"/>
+        <v>99.1</v>
+      </c>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3079,16 +3242,28 @@
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Y10" s="16">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="17"/>
+      <c r="Z10" s="23">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="21">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -3171,18 +3346,30 @@
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Y11" s="16">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15">
+      <c r="Z11" s="22">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AA11" s="17">
         <v>74</v>
       </c>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="17"/>
+      <c r="AB11" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="13">
+        <f t="shared" si="11"/>
+        <v>97.4</v>
+      </c>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -3265,18 +3452,30 @@
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="Y12" s="16">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15">
+      <c r="Z12" s="22">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="AA12" s="17">
         <v>73</v>
       </c>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="17"/>
+      <c r="AB12" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="13">
+        <f t="shared" si="11"/>
+        <v>97.2</v>
+      </c>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -3359,16 +3558,28 @@
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Y13" s="16">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="17"/>
+      <c r="Z13" s="23">
+        <f t="shared" si="10"/>
+        <v>95</v>
+      </c>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="21">
+        <f t="shared" si="11"/>
+        <v>86.699999999999989</v>
+      </c>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="22" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -3451,18 +3662,30 @@
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="Y14" s="14">
+      <c r="Y14" s="16">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15">
+      <c r="Z14" s="22">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AA14" s="17">
         <v>85</v>
       </c>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="17"/>
+      <c r="AB14" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="13">
+        <f t="shared" si="11"/>
+        <v>98.5</v>
+      </c>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -3545,18 +3768,30 @@
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="Y15" s="14">
+      <c r="Y15" s="16">
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15">
+      <c r="Z15" s="22">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
+      <c r="AA15" s="17">
         <v>79</v>
       </c>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="17"/>
+      <c r="AB15" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="13">
+        <f t="shared" si="11"/>
+        <v>96.2</v>
+      </c>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -3639,29 +3874,48 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="Y16" s="14">
+      <c r="Y16" s="16">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15">
+      <c r="Z16" s="22">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="AA16" s="17">
         <v>70</v>
       </c>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="17"/>
+      <c r="AB16" s="17">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="13">
+        <f t="shared" si="11"/>
+        <v>97</v>
+      </c>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="22" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="17" spans="25:28" x14ac:dyDescent="0.2">
-      <c r="Y17">
-        <v>70</v>
-      </c>
-      <c r="Z17">
-        <v>10</v>
-      </c>
-      <c r="AA17" s="12">
-        <v>10</v>
-      </c>
-      <c r="AB17" s="13">
-        <v>10</v>
+    <row r="17" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y17" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="Z17" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="AA17" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="AB17" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AC17" s="19">
+        <f>SUM(Y17:AB17)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kcg1/code/kriscgun/xdasi-bio-2021/homework_graded/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D89EF12-D1C3-B644-84DF-777791725880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFF9067-3D16-BD49-AD7B-192130F1082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1640" windowWidth="33780" windowHeight="19680" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AA$2:$AA$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AA$2:$AA$16</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AA$2:$AA$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AA$2:$AA$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -136,9 +135,6 @@
     <t>top10</t>
   </si>
   <si>
-    <t>top10_avg_capped_to_100</t>
-  </si>
-  <si>
     <t>Take-home final</t>
   </si>
   <si>
@@ -167,6 +163,9 @@
   </si>
   <si>
     <t>Tentative Final Grade</t>
+  </si>
+  <si>
+    <t>Homeworks</t>
   </si>
 </sst>
 </file>
@@ -207,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,12 +246,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -348,6 +341,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,19 +361,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,301 +382,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AA$2:$AA$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F41-FA4F-956D-B9888F1133F9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="985726560"/>
-        <c:axId val="985712544"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="985726560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="985712544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="985712544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="985726560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -753,550 +459,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1808,42 +971,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>984251</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>70758</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>49894</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19958</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF08D4F-F4DE-684E-B866-00EB0F6579AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>68036</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -1874,7 +1001,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -1889,8 +1016,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6009822" y="3681187"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6024336" y="3746501"/>
+              <a:ext cx="4564743" cy="2794000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2223,18 +1350,24 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB19" sqref="AB19"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="24" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="24" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2277,38 +1410,38 @@
       <c r="N1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="16" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE1" s="24" t="s">
-        <v>42</v>
+      <c r="AE1" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2394,27 +1527,24 @@
         <f>LARGE(C2:N2,10)</f>
         <v>97</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="Y2" s="26">
         <f>IF(ROUND(AVERAGE(O2:X2),0)&gt;100,100,ROUND(AVERAGE(O2:X2),0))</f>
         <v>100</v>
       </c>
-      <c r="Z2" s="22">
-        <f>IF(ROUND(AVERAGE(P2:Y2),0)&gt;100,100,ROUND(AVERAGE(P2:Y2),0))</f>
-        <v>100</v>
-      </c>
-      <c r="AA2" s="17">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="14">
         <v>88</v>
       </c>
-      <c r="AB2" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC2" s="13">
+      <c r="AB2" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC2" s="10">
         <f xml:space="preserve"> Y2*0.7 + Z2*0.1 + AA2*0.1 + AB2*0.1</f>
-        <v>98.8</v>
-      </c>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="22" t="s">
-        <v>39</v>
+        <v>88.8</v>
+      </c>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2500,27 +1630,26 @@
         <f t="shared" ref="X3:X16" si="9">LARGE(C3:N3,10)</f>
         <v>97</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="26">
         <f t="shared" ref="Y3:Z16" si="10">IF(ROUND(AVERAGE(O3:X3),0)&gt;100,100,ROUND(AVERAGE(O3:X3),0))</f>
         <v>98</v>
       </c>
-      <c r="Z3" s="22">
-        <f t="shared" si="10"/>
-        <v>98</v>
-      </c>
-      <c r="AA3" s="17">
+      <c r="Z3" s="24">
+        <v>99</v>
+      </c>
+      <c r="AA3" s="14">
         <v>66</v>
       </c>
-      <c r="AB3" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC3" s="13">
+      <c r="AB3" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC3" s="10">
         <f t="shared" ref="AC3:AC16" si="11" xml:space="preserve"> Y3*0.7 + Z3*0.1 + AA3*0.1 + AB3*0.1</f>
-        <v>94.999999999999986</v>
-      </c>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="22" t="s">
-        <v>40</v>
+        <v>95.1</v>
+      </c>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2606,27 +1735,24 @@
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="26">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="Z4" s="22">
-        <f t="shared" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="AA4" s="17">
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="14">
         <v>86</v>
       </c>
-      <c r="AB4" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC4" s="13">
+      <c r="AB4" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC4" s="10">
         <f t="shared" si="11"/>
-        <v>97.8</v>
-      </c>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="22" t="s">
-        <v>39</v>
+        <v>87.899999999999991</v>
+      </c>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2712,27 +1838,24 @@
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Y5" s="26">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="Z5" s="22">
-        <f t="shared" si="10"/>
-        <v>96</v>
-      </c>
-      <c r="AA5" s="17">
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="14">
         <v>71</v>
       </c>
-      <c r="AB5" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC5" s="13">
+      <c r="AB5" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC5" s="10">
         <f t="shared" si="11"/>
-        <v>94.6</v>
-      </c>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="22" t="s">
-        <v>41</v>
+        <v>84.999999999999986</v>
+      </c>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2818,27 +1941,24 @@
         <f t="shared" si="9"/>
         <v>79</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="26">
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="Z6" s="22">
-        <f t="shared" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="AA6" s="17">
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="14">
         <v>63</v>
       </c>
-      <c r="AB6" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC6" s="13">
+      <c r="AB6" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="10">
         <f t="shared" si="11"/>
-        <v>90.6</v>
-      </c>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="22" t="s">
-        <v>41</v>
+        <v>81.399999999999991</v>
+      </c>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2924,27 +2044,24 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="26">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z7" s="22">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="AA7" s="17">
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="14">
         <v>73</v>
       </c>
-      <c r="AB7" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC7" s="13">
+      <c r="AB7" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="10">
         <f t="shared" si="11"/>
-        <v>97.3</v>
-      </c>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="22" t="s">
-        <v>39</v>
+        <v>87.3</v>
+      </c>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3030,27 +2147,24 @@
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Y8" s="26">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="Z8" s="22">
-        <f t="shared" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="AA8" s="17">
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="14">
         <v>93</v>
       </c>
-      <c r="AB8" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC8" s="13">
+      <c r="AB8" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="10">
         <f t="shared" si="11"/>
-        <v>98.5</v>
-      </c>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="22" t="s">
-        <v>39</v>
+        <v>88.6</v>
+      </c>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3136,27 +2250,26 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="26">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z9" s="22">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="AA9" s="17">
+      <c r="Z9" s="24">
+        <v>99</v>
+      </c>
+      <c r="AA9" s="14">
         <v>91</v>
       </c>
-      <c r="AB9" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC9" s="13">
+      <c r="AB9" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="10">
         <f t="shared" si="11"/>
-        <v>99.1</v>
-      </c>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="22" t="s">
-        <v>39</v>
+        <v>99</v>
+      </c>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3242,25 +2355,22 @@
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Y10" s="26">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z10" s="23">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC10" s="21">
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="5">
         <f t="shared" si="11"/>
-        <v>90</v>
-      </c>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="22" t="s">
-        <v>39</v>
+        <v>80</v>
+      </c>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="23" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3346,27 +2456,24 @@
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Y11" s="26">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z11" s="22">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="AA11" s="17">
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="14">
         <v>74</v>
       </c>
-      <c r="AB11" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC11" s="13">
+      <c r="AB11" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="10">
         <f t="shared" si="11"/>
-        <v>97.4</v>
-      </c>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="22" t="s">
-        <v>39</v>
+        <v>87.4</v>
+      </c>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3452,27 +2559,24 @@
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Y12" s="26">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z12" s="22">
-        <f t="shared" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="AA12" s="17">
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="14">
         <v>73</v>
       </c>
-      <c r="AB12" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC12" s="13">
+      <c r="AB12" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="10">
         <f t="shared" si="11"/>
-        <v>97.2</v>
-      </c>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="22" t="s">
-        <v>39</v>
+        <v>87.3</v>
+      </c>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3558,25 +2662,22 @@
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y13" s="26">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="Z13" s="23">
-        <f t="shared" si="10"/>
-        <v>95</v>
-      </c>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC13" s="21">
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="5">
         <f t="shared" si="11"/>
-        <v>86.699999999999989</v>
-      </c>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="22" t="s">
-        <v>41</v>
+        <v>77.199999999999989</v>
+      </c>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3662,27 +2763,26 @@
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="Y14" s="16">
+      <c r="Y14" s="26">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z14" s="22">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="AA14" s="17">
+      <c r="Z14" s="24">
+        <v>99</v>
+      </c>
+      <c r="AA14" s="14">
         <v>85</v>
       </c>
-      <c r="AB14" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC14" s="13">
+      <c r="AB14" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="10">
         <f t="shared" si="11"/>
-        <v>98.5</v>
-      </c>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="22" t="s">
-        <v>39</v>
+        <v>98.4</v>
+      </c>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3768,27 +2868,24 @@
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="Y15" s="26">
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="Z15" s="22">
-        <f t="shared" si="10"/>
-        <v>97</v>
-      </c>
-      <c r="AA15" s="17">
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="14">
         <v>79</v>
       </c>
-      <c r="AB15" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC15" s="13">
+      <c r="AB15" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="10">
         <f t="shared" si="11"/>
-        <v>96.2</v>
-      </c>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="22" t="s">
-        <v>40</v>
+        <v>86.5</v>
+      </c>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3874,46 +2971,43 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="Y16" s="16">
+      <c r="Y16" s="26">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z16" s="22">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="AA16" s="17">
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="14">
         <v>70</v>
       </c>
-      <c r="AB16" s="17">
-        <v>100</v>
-      </c>
-      <c r="AC16" s="13">
+      <c r="AB16" s="14">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="10">
         <f t="shared" si="11"/>
-        <v>97</v>
-      </c>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="22" t="s">
-        <v>40</v>
+        <v>87</v>
+      </c>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y17" s="18">
+    <row r="17" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y17" s="15">
         <v>0.7</v>
       </c>
-      <c r="Z17" s="18">
+      <c r="Z17" s="15">
         <v>0.1</v>
       </c>
-      <c r="AA17" s="19">
+      <c r="AA17" s="16">
         <v>0.1</v>
       </c>
-      <c r="AB17" s="20">
+      <c r="AB17" s="17">
         <v>0.1</v>
       </c>
-      <c r="AC17" s="19">
+      <c r="AC17" s="16">
         <f>SUM(Y17:AB17)</f>
         <v>0.99999999999999989</v>
       </c>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFF9067-3D16-BD49-AD7B-192130F1082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D133DA-DD7C-634B-B781-30E808605AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -352,6 +352,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,10 +365,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,8 +1016,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6024336" y="3746501"/>
-              <a:ext cx="4564743" cy="2794000"/>
+              <a:off x="6189436" y="3746501"/>
+              <a:ext cx="4717143" cy="2794000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1351,7 +1351,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z5" sqref="Z5"/>
+      <selection pane="topRight" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,18 +1410,18 @@
       <c r="N1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="22"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="26"/>
       <c r="Y1" s="13" t="s">
         <v>42</v>
       </c>
@@ -1527,11 +1527,11 @@
         <f>LARGE(C2:N2,10)</f>
         <v>97</v>
       </c>
-      <c r="Y2" s="26">
+      <c r="Y2" s="23">
         <f>IF(ROUND(AVERAGE(O2:X2),0)&gt;100,100,ROUND(AVERAGE(O2:X2),0))</f>
         <v>100</v>
       </c>
-      <c r="Z2" s="24"/>
+      <c r="Z2" s="21"/>
       <c r="AA2" s="14">
         <v>88</v>
       </c>
@@ -1630,11 +1630,11 @@
         <f t="shared" ref="X3:X16" si="9">LARGE(C3:N3,10)</f>
         <v>97</v>
       </c>
-      <c r="Y3" s="26">
-        <f t="shared" ref="Y3:Z16" si="10">IF(ROUND(AVERAGE(O3:X3),0)&gt;100,100,ROUND(AVERAGE(O3:X3),0))</f>
-        <v>98</v>
-      </c>
-      <c r="Z3" s="24">
+      <c r="Y3" s="23">
+        <f t="shared" ref="Y3:Y16" si="10">IF(ROUND(AVERAGE(O3:X3),0)&gt;100,100,ROUND(AVERAGE(O3:X3),0))</f>
+        <v>98</v>
+      </c>
+      <c r="Z3" s="21">
         <v>99</v>
       </c>
       <c r="AA3" s="14">
@@ -1735,11 +1735,11 @@
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="Y4" s="26">
+      <c r="Y4" s="23">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="Z4" s="24"/>
+      <c r="Z4" s="21"/>
       <c r="AA4" s="14">
         <v>86</v>
       </c>
@@ -1838,11 +1838,11 @@
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="Y5" s="26">
+      <c r="Y5" s="23">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="Z5" s="24"/>
+      <c r="Z5" s="21"/>
       <c r="AA5" s="14">
         <v>71</v>
       </c>
@@ -1941,11 +1941,11 @@
         <f t="shared" si="9"/>
         <v>79</v>
       </c>
-      <c r="Y6" s="26">
+      <c r="Y6" s="23">
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="Z6" s="24"/>
+      <c r="Z6" s="21"/>
       <c r="AA6" s="14">
         <v>63</v>
       </c>
@@ -2044,11 +2044,11 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="Y7" s="26">
+      <c r="Y7" s="23">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z7" s="24"/>
+      <c r="Z7" s="21"/>
       <c r="AA7" s="14">
         <v>73</v>
       </c>
@@ -2147,11 +2147,11 @@
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="Y8" s="26">
+      <c r="Y8" s="23">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="Z8" s="24"/>
+      <c r="Z8" s="21"/>
       <c r="AA8" s="14">
         <v>93</v>
       </c>
@@ -2250,11 +2250,11 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="Y9" s="26">
+      <c r="Y9" s="23">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z9" s="24">
+      <c r="Z9" s="21">
         <v>99</v>
       </c>
       <c r="AA9" s="14">
@@ -2355,11 +2355,11 @@
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="Y10" s="26">
+      <c r="Y10" s="23">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z10" s="25"/>
+      <c r="Z10" s="22"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5">
         <v>100</v>
@@ -2369,7 +2369,7 @@
         <v>80</v>
       </c>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="23" t="s">
+      <c r="AE10" s="20" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2456,11 +2456,11 @@
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="Y11" s="26">
+      <c r="Y11" s="23">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z11" s="24"/>
+      <c r="Z11" s="21"/>
       <c r="AA11" s="14">
         <v>74</v>
       </c>
@@ -2559,11 +2559,13 @@
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="Y12" s="26">
+      <c r="Y12" s="23">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z12" s="24"/>
+      <c r="Z12" s="21">
+        <v>99</v>
+      </c>
       <c r="AA12" s="14">
         <v>73</v>
       </c>
@@ -2572,7 +2574,7 @@
       </c>
       <c r="AC12" s="10">
         <f t="shared" si="11"/>
-        <v>87.3</v>
+        <v>97.2</v>
       </c>
       <c r="AD12" s="12"/>
       <c r="AE12" s="18" t="s">
@@ -2662,11 +2664,11 @@
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="Y13" s="26">
+      <c r="Y13" s="23">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="Z13" s="25"/>
+      <c r="Z13" s="22"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5">
         <v>100</v>
@@ -2676,7 +2678,7 @@
         <v>77.199999999999989</v>
       </c>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="23" t="s">
+      <c r="AE13" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2763,11 +2765,11 @@
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="Y14" s="26">
+      <c r="Y14" s="23">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z14" s="24">
+      <c r="Z14" s="21">
         <v>99</v>
       </c>
       <c r="AA14" s="14">
@@ -2868,11 +2870,13 @@
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="Y15" s="26">
+      <c r="Y15" s="23">
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="Z15" s="24"/>
+      <c r="Z15" s="21">
+        <v>98</v>
+      </c>
       <c r="AA15" s="14">
         <v>79</v>
       </c>
@@ -2881,7 +2885,7 @@
       </c>
       <c r="AC15" s="10">
         <f t="shared" si="11"/>
-        <v>86.5</v>
+        <v>96.3</v>
       </c>
       <c r="AD15" s="12"/>
       <c r="AE15" s="18" t="s">
@@ -2971,11 +2975,11 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="Y16" s="26">
+      <c r="Y16" s="23">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z16" s="24"/>
+      <c r="Z16" s="21"/>
       <c r="AA16" s="14">
         <v>70</v>
       </c>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D133DA-DD7C-634B-B781-30E808605AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16451701-2B39-0A4E-A11D-7DF72632D735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -256,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -316,17 +316,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -348,8 +337,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -365,6 +352,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1350,8 +1339,8 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z12" sqref="Z12"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,18 +1399,18 @@
       <c r="N1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="24"/>
       <c r="Y1" s="13" t="s">
         <v>42</v>
       </c>
@@ -1440,7 +1429,7 @@
       <c r="AD1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AE1" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1527,11 +1516,13 @@
         <f>LARGE(C2:N2,10)</f>
         <v>97</v>
       </c>
-      <c r="Y2" s="23">
+      <c r="Y2" s="21">
         <f>IF(ROUND(AVERAGE(O2:X2),0)&gt;100,100,ROUND(AVERAGE(O2:X2),0))</f>
         <v>100</v>
       </c>
-      <c r="Z2" s="21"/>
+      <c r="Z2" s="19">
+        <v>100</v>
+      </c>
       <c r="AA2" s="14">
         <v>88</v>
       </c>
@@ -1540,10 +1531,10 @@
       </c>
       <c r="AC2" s="10">
         <f xml:space="preserve"> Y2*0.7 + Z2*0.1 + AA2*0.1 + AB2*0.1</f>
-        <v>88.8</v>
+        <v>98.8</v>
       </c>
       <c r="AD2" s="12"/>
-      <c r="AE2" s="18" t="s">
+      <c r="AE2" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1630,11 +1621,11 @@
         <f t="shared" ref="X3:X16" si="9">LARGE(C3:N3,10)</f>
         <v>97</v>
       </c>
-      <c r="Y3" s="23">
+      <c r="Y3" s="21">
         <f t="shared" ref="Y3:Y16" si="10">IF(ROUND(AVERAGE(O3:X3),0)&gt;100,100,ROUND(AVERAGE(O3:X3),0))</f>
         <v>98</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="Z3" s="19">
         <v>99</v>
       </c>
       <c r="AA3" s="14">
@@ -1648,7 +1639,7 @@
         <v>95.1</v>
       </c>
       <c r="AD3" s="12"/>
-      <c r="AE3" s="18" t="s">
+      <c r="AE3" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1735,11 +1726,13 @@
         <f t="shared" si="9"/>
         <v>95</v>
       </c>
-      <c r="Y4" s="23">
+      <c r="Y4" s="21">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="Z4" s="21"/>
+      <c r="Z4" s="19">
+        <v>100</v>
+      </c>
       <c r="AA4" s="14">
         <v>86</v>
       </c>
@@ -1748,10 +1741,10 @@
       </c>
       <c r="AC4" s="10">
         <f t="shared" si="11"/>
-        <v>87.899999999999991</v>
+        <v>97.899999999999991</v>
       </c>
       <c r="AD4" s="12"/>
-      <c r="AE4" s="18" t="s">
+      <c r="AE4" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1838,11 +1831,13 @@
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="Y5" s="23">
+      <c r="Y5" s="21">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="Z5" s="21"/>
+      <c r="Z5" s="19">
+        <v>87</v>
+      </c>
       <c r="AA5" s="14">
         <v>71</v>
       </c>
@@ -1851,10 +1846,10 @@
       </c>
       <c r="AC5" s="10">
         <f t="shared" si="11"/>
-        <v>84.999999999999986</v>
+        <v>93.699999999999989</v>
       </c>
       <c r="AD5" s="12"/>
-      <c r="AE5" s="18" t="s">
+      <c r="AE5" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1941,11 +1936,11 @@
         <f t="shared" si="9"/>
         <v>79</v>
       </c>
-      <c r="Y6" s="23">
+      <c r="Y6" s="21">
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="Z6" s="21"/>
+      <c r="Z6" s="19"/>
       <c r="AA6" s="14">
         <v>63</v>
       </c>
@@ -1957,7 +1952,7 @@
         <v>81.399999999999991</v>
       </c>
       <c r="AD6" s="12"/>
-      <c r="AE6" s="18" t="s">
+      <c r="AE6" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2044,11 +2039,13 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="Y7" s="23">
+      <c r="Y7" s="21">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z7" s="21"/>
+      <c r="Z7" s="19">
+        <v>100</v>
+      </c>
       <c r="AA7" s="14">
         <v>73</v>
       </c>
@@ -2057,10 +2054,10 @@
       </c>
       <c r="AC7" s="10">
         <f t="shared" si="11"/>
-        <v>87.3</v>
+        <v>97.3</v>
       </c>
       <c r="AD7" s="12"/>
-      <c r="AE7" s="18" t="s">
+      <c r="AE7" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2147,11 +2144,13 @@
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="Y8" s="23">
+      <c r="Y8" s="21">
         <f t="shared" si="10"/>
         <v>99</v>
       </c>
-      <c r="Z8" s="21"/>
+      <c r="Z8" s="19">
+        <v>93</v>
+      </c>
       <c r="AA8" s="14">
         <v>93</v>
       </c>
@@ -2160,10 +2159,10 @@
       </c>
       <c r="AC8" s="10">
         <f t="shared" si="11"/>
-        <v>88.6</v>
+        <v>97.899999999999991</v>
       </c>
       <c r="AD8" s="12"/>
-      <c r="AE8" s="18" t="s">
+      <c r="AE8" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2250,12 +2249,12 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Y9" s="21">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z9" s="21">
-        <v>99</v>
+      <c r="Z9" s="19">
+        <v>98</v>
       </c>
       <c r="AA9" s="14">
         <v>91</v>
@@ -2265,10 +2264,10 @@
       </c>
       <c r="AC9" s="10">
         <f t="shared" si="11"/>
-        <v>99</v>
+        <v>98.899999999999991</v>
       </c>
       <c r="AD9" s="12"/>
-      <c r="AE9" s="18" t="s">
+      <c r="AE9" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2355,11 +2354,11 @@
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="Y10" s="23">
+      <c r="Y10" s="21">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z10" s="22"/>
+      <c r="Z10" s="20"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5">
         <v>100</v>
@@ -2369,7 +2368,7 @@
         <v>80</v>
       </c>
       <c r="AD10" s="5"/>
-      <c r="AE10" s="20" t="s">
+      <c r="AE10" s="18" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2456,11 +2455,11 @@
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="Y11" s="23">
+      <c r="Y11" s="21">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z11" s="21"/>
+      <c r="Z11" s="19"/>
       <c r="AA11" s="14">
         <v>74</v>
       </c>
@@ -2472,7 +2471,7 @@
         <v>87.4</v>
       </c>
       <c r="AD11" s="12"/>
-      <c r="AE11" s="18" t="s">
+      <c r="AE11" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2559,12 +2558,12 @@
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="Y12" s="23">
+      <c r="Y12" s="21">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z12" s="21">
-        <v>99</v>
+      <c r="Z12" s="19">
+        <v>98</v>
       </c>
       <c r="AA12" s="14">
         <v>73</v>
@@ -2574,10 +2573,10 @@
       </c>
       <c r="AC12" s="10">
         <f t="shared" si="11"/>
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="AD12" s="12"/>
-      <c r="AE12" s="18" t="s">
+      <c r="AE12" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2664,11 +2663,11 @@
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="Y13" s="23">
+      <c r="Y13" s="21">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="Z13" s="22"/>
+      <c r="Z13" s="20"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5">
         <v>100</v>
@@ -2678,7 +2677,7 @@
         <v>77.199999999999989</v>
       </c>
       <c r="AD13" s="5"/>
-      <c r="AE13" s="20" t="s">
+      <c r="AE13" s="18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2765,11 +2764,11 @@
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="Y14" s="23">
+      <c r="Y14" s="21">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z14" s="21">
+      <c r="Z14" s="19">
         <v>99</v>
       </c>
       <c r="AA14" s="14">
@@ -2783,7 +2782,7 @@
         <v>98.4</v>
       </c>
       <c r="AD14" s="12"/>
-      <c r="AE14" s="18" t="s">
+      <c r="AE14" s="16" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2870,11 +2869,11 @@
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="Y15" s="23">
+      <c r="Y15" s="21">
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="Z15" s="21">
+      <c r="Z15" s="19">
         <v>98</v>
       </c>
       <c r="AA15" s="14">
@@ -2888,7 +2887,7 @@
         <v>96.3</v>
       </c>
       <c r="AD15" s="12"/>
-      <c r="AE15" s="18" t="s">
+      <c r="AE15" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2975,11 +2974,13 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Y16" s="21">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z16" s="21"/>
+      <c r="Z16" s="19">
+        <v>100</v>
+      </c>
       <c r="AA16" s="14">
         <v>70</v>
       </c>
@@ -2988,10 +2989,10 @@
       </c>
       <c r="AC16" s="10">
         <f t="shared" si="11"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="AD16" s="12"/>
-      <c r="AE16" s="18" t="s">
+      <c r="AE16" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2999,19 +3000,19 @@
       <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="Y17" s="25">
         <v>0.7</v>
       </c>
-      <c r="Z17" s="15">
+      <c r="Z17" s="25">
         <v>0.1</v>
       </c>
-      <c r="AA17" s="16">
+      <c r="AA17" s="26">
         <v>0.1</v>
       </c>
-      <c r="AB17" s="17">
+      <c r="AB17" s="26">
         <v>0.1</v>
       </c>
-      <c r="AC17" s="16">
+      <c r="AC17" s="26">
         <f>SUM(Y17:AB17)</f>
         <v>0.99999999999999989</v>
       </c>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16451701-2B39-0A4E-A11D-7DF72632D735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D01278-4226-0741-8A2E-16260BC298A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -343,6 +343,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -352,8 +354,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1340,7 +1340,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z9" sqref="Z9"/>
+      <selection pane="topRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1399,18 +1399,18 @@
       <c r="N1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="24"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="26"/>
       <c r="Y1" s="13" t="s">
         <v>42</v>
       </c>
@@ -1473,8 +1473,8 @@
       <c r="M2" s="1">
         <v>99</v>
       </c>
-      <c r="N2" s="5">
-        <v>0</v>
+      <c r="N2" s="6">
+        <v>95</v>
       </c>
       <c r="O2" s="8">
         <f>LARGE(C2:N2,1)</f>
@@ -1893,8 +1893,8 @@
       <c r="M6" s="1">
         <v>85</v>
       </c>
-      <c r="N6" s="5">
-        <v>0</v>
+      <c r="N6" s="6">
+        <v>86</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="0"/>
@@ -1930,15 +1930,15 @@
       </c>
       <c r="W6" s="8">
         <f t="shared" si="8"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="9"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Y6" s="21">
         <f t="shared" si="10"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z6" s="19"/>
       <c r="AA6" s="14">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="AC6" s="10">
         <f t="shared" si="11"/>
-        <v>81.399999999999991</v>
+        <v>82.1</v>
       </c>
       <c r="AD6" s="12"/>
       <c r="AE6" s="16" t="s">
@@ -2459,7 +2459,9 @@
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="Z11" s="19"/>
+      <c r="Z11" s="19">
+        <v>100</v>
+      </c>
       <c r="AA11" s="14">
         <v>74</v>
       </c>
@@ -2468,7 +2470,7 @@
       </c>
       <c r="AC11" s="10">
         <f t="shared" si="11"/>
-        <v>87.4</v>
+        <v>97.4</v>
       </c>
       <c r="AD11" s="12"/>
       <c r="AE11" s="16" t="s">
@@ -3000,19 +3002,19 @@
       <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Y17" s="25">
+      <c r="Y17" s="22">
         <v>0.7</v>
       </c>
-      <c r="Z17" s="25">
+      <c r="Z17" s="22">
         <v>0.1</v>
       </c>
-      <c r="AA17" s="26">
+      <c r="AA17" s="23">
         <v>0.1</v>
       </c>
-      <c r="AB17" s="26">
+      <c r="AB17" s="23">
         <v>0.1</v>
       </c>
-      <c r="AC17" s="26">
+      <c r="AC17" s="23">
         <f>SUM(Y17:AB17)</f>
         <v>0.99999999999999989</v>
       </c>

--- a/homework_graded/homework_all_grades.xlsx
+++ b/homework_graded/homework_all_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsierieb/Documents/GitHub/xdasi-bio-2021/homework_graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D01278-4226-0741-8A2E-16260BC298A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4D77B5-A07E-494A-9506-25F688180884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{B933EA44-64D6-EE45-9B5A-B25C9609ED6C}"/>
   </bookViews>
@@ -1339,8 +1339,8 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N6" sqref="N6"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1940,7 +1940,9 @@
         <f t="shared" si="10"/>
         <v>94</v>
       </c>
-      <c r="Z6" s="19"/>
+      <c r="Z6" s="19">
+        <v>96</v>
+      </c>
       <c r="AA6" s="14">
         <v>63</v>
       </c>
@@ -1949,7 +1951,7 @@
       </c>
       <c r="AC6" s="10">
         <f t="shared" si="11"/>
-        <v>82.1</v>
+        <v>91.7</v>
       </c>
       <c r="AD6" s="12"/>
       <c r="AE6" s="16" t="s">
@@ -2995,7 +2997,7 @@
       </c>
       <c r="AD16" s="12"/>
       <c r="AE16" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.2">
